--- a/Departments/LING.xlsx
+++ b/Departments/LING.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current Project\Course Requisites\DEPTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C54DFED-1252-4106-92C3-4F1B3B8058F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECB8DA1-436A-4A48-80D1-6C7D35E8418A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16A6B0E0-0F94-44A6-A596-6FDF71C4E31A}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{16A6B0E0-0F94-44A6-A596-6FDF71C4E31A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>Course_Name</t>
   </si>
   <si>
-    <t>PREREQ_COURSES</t>
-  </si>
-  <si>
-    <t>COREQ_COURSES</t>
-  </si>
-  <si>
     <t>Acad_Group</t>
   </si>
   <si>
@@ -709,6 +703,12 @@
   </si>
   <si>
     <t>LING 810 - Topics in Linguistics I</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>CoRequisites</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1063,7 @@
   <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1082,2384 +1082,2384 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" t="s">
-        <v>50</v>
-      </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
         <v>51</v>
       </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" t="s">
-        <v>53</v>
-      </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
         <v>54</v>
       </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
         <v>55</v>
-      </c>
-      <c r="E19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
         <v>60</v>
       </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
         <v>61</v>
-      </c>
-      <c r="E21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
         <v>64</v>
       </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
         <v>65</v>
-      </c>
-      <c r="E22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" t="s">
         <v>68</v>
       </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
         <v>69</v>
-      </c>
-      <c r="D23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" t="s">
         <v>11</v>
       </c>
-      <c r="D27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" t="s">
-        <v>13</v>
-      </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
         <v>90</v>
-      </c>
-      <c r="E34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
         <v>93</v>
-      </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
         <v>96</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
         <v>105</v>
-      </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H41" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" t="s">
         <v>110</v>
       </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
         <v>111</v>
-      </c>
-      <c r="E42" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H43" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" t="s">
         <v>116</v>
       </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s">
-        <v>117</v>
-      </c>
-      <c r="E44" t="s">
-        <v>118</v>
-      </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H51" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H52" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H56" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" t="s">
         <v>143</v>
       </c>
-      <c r="B57" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
         <v>144</v>
       </c>
-      <c r="D57" t="s">
+      <c r="H57" t="s">
         <v>145</v>
-      </c>
-      <c r="E57" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>146</v>
-      </c>
-      <c r="H57" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>141</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" t="s">
         <v>143</v>
       </c>
-      <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
         <v>144</v>
       </c>
-      <c r="D58" t="s">
+      <c r="H58" t="s">
         <v>145</v>
       </c>
-      <c r="E58" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="I58" t="s">
         <v>146</v>
-      </c>
-      <c r="H58" t="s">
-        <v>147</v>
-      </c>
-      <c r="I58" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H59" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H61" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H62" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H63" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H64" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E65" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H65" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E66" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H67" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H68" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E69" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H69" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G70" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H70" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
+        <v>171</v>
+      </c>
+      <c r="D71" t="s">
+        <v>172</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>171</v>
+      </c>
+      <c r="H71" t="s">
         <v>173</v>
-      </c>
-      <c r="D71" t="s">
-        <v>174</v>
-      </c>
-      <c r="E71" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>173</v>
-      </c>
-      <c r="H71" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>175</v>
+      </c>
+      <c r="E72" t="s">
+        <v>51</v>
+      </c>
+      <c r="F72" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
         <v>176</v>
-      </c>
-      <c r="B72" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s">
-        <v>177</v>
-      </c>
-      <c r="E72" t="s">
-        <v>53</v>
-      </c>
-      <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s">
-        <v>15</v>
-      </c>
-      <c r="H72" t="s">
-        <v>16</v>
-      </c>
-      <c r="I72" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E73" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H73" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>181</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" t="s">
+        <v>182</v>
+      </c>
+      <c r="E75" t="s">
         <v>183</v>
       </c>
-      <c r="B75" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="F75" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
         <v>184</v>
-      </c>
-      <c r="E75" t="s">
-        <v>185</v>
-      </c>
-      <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>15</v>
-      </c>
-      <c r="H75" t="s">
-        <v>16</v>
-      </c>
-      <c r="I75" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>185</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" t="s">
+        <v>186</v>
+      </c>
+      <c r="E76" t="s">
+        <v>56</v>
+      </c>
+      <c r="F76" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
         <v>187</v>
-      </c>
-      <c r="B76" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s">
-        <v>188</v>
-      </c>
-      <c r="E76" t="s">
-        <v>58</v>
-      </c>
-      <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s">
-        <v>15</v>
-      </c>
-      <c r="H76" t="s">
-        <v>16</v>
-      </c>
-      <c r="I76" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>188</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
+        <v>189</v>
+      </c>
+      <c r="E77" t="s">
         <v>190</v>
       </c>
-      <c r="B77" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="F77" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
         <v>191</v>
-      </c>
-      <c r="E77" t="s">
-        <v>192</v>
-      </c>
-      <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>15</v>
-      </c>
-      <c r="H77" t="s">
-        <v>16</v>
-      </c>
-      <c r="I77" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
+        <v>192</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" t="s">
+        <v>193</v>
+      </c>
+      <c r="E78" t="s">
+        <v>174</v>
+      </c>
+      <c r="F78" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
         <v>194</v>
-      </c>
-      <c r="B78" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s">
-        <v>195</v>
-      </c>
-      <c r="E78" t="s">
-        <v>176</v>
-      </c>
-      <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s">
-        <v>15</v>
-      </c>
-      <c r="H78" t="s">
-        <v>16</v>
-      </c>
-      <c r="I78" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
+        <v>195</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" t="s">
+        <v>196</v>
+      </c>
+      <c r="E79" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
         <v>197</v>
-      </c>
-      <c r="B79" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s">
-        <v>198</v>
-      </c>
-      <c r="E79" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>15</v>
-      </c>
-      <c r="H79" t="s">
-        <v>16</v>
-      </c>
-      <c r="I79" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E80" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G80" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H80" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E81" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H81" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
+        <v>202</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" t="s">
+        <v>203</v>
+      </c>
+      <c r="E82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
         <v>204</v>
-      </c>
-      <c r="B82" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s">
-        <v>205</v>
-      </c>
-      <c r="E82" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s">
-        <v>15</v>
-      </c>
-      <c r="H82" t="s">
-        <v>16</v>
-      </c>
-      <c r="I82" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>205</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" t="s">
+        <v>206</v>
+      </c>
+      <c r="E83" t="s">
+        <v>33</v>
+      </c>
+      <c r="F83" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
         <v>207</v>
-      </c>
-      <c r="B83" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s">
-        <v>208</v>
-      </c>
-      <c r="E83" t="s">
-        <v>35</v>
-      </c>
-      <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
-        <v>15</v>
-      </c>
-      <c r="H83" t="s">
-        <v>16</v>
-      </c>
-      <c r="I83" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E84" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H84" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E85" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G85" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H85" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B86" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E86" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H86" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E87" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H87" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E88" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H88" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E89" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E90" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G90" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H90" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Departments/LING.xlsx
+++ b/Departments/LING.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mitali\Current project\CourseMaps\CourseMap_Sigma\Departments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mpattani\Documents\Course_Requisites\Departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECB8DA1-436A-4A48-80D1-6C7D35E8418A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB24A35-F810-4128-90D8-0A145B66521C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{16A6B0E0-0F94-44A6-A596-6FDF71C4E31A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{16A6B0E0-0F94-44A6-A596-6FDF71C4E31A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="221">
   <si>
     <t>Course_Code</t>
   </si>
@@ -201,12 +201,6 @@
     <t>LING 324 - Semantics</t>
   </si>
   <si>
-    <t>FANX99,LING282W</t>
-  </si>
-  <si>
-    <t>REQ-LING 282W. Quantitative.</t>
-  </si>
-  <si>
     <t>LING330</t>
   </si>
   <si>
@@ -306,12 +300,6 @@
     <t>LING 282W - Writing for Linguistics</t>
   </si>
   <si>
-    <t>FALX99,FANX99,LING220</t>
-  </si>
-  <si>
-    <t>REQ-LING 220.  Writing/Quantitative.</t>
-  </si>
-  <si>
     <t>LING309W</t>
   </si>
   <si>
@@ -567,9 +555,6 @@
     <t>LING 360 - Introduction to Applied Linguistics</t>
   </si>
   <si>
-    <t>REQ-LING 282W.</t>
-  </si>
-  <si>
     <t>LING362</t>
   </si>
   <si>
@@ -591,9 +576,6 @@
     <t>FANX99,LING322</t>
   </si>
   <si>
-    <t>REQ-LING 322. PHIL 210 recommended.</t>
-  </si>
-  <si>
     <t>LING401</t>
   </si>
   <si>
@@ -687,12 +669,6 @@
     <t>LING 804 - Field Methods</t>
   </si>
   <si>
-    <t>LING805</t>
-  </si>
-  <si>
-    <t>LING 805 - Historical and Comparative Linguistics</t>
-  </si>
-  <si>
     <t>LING806</t>
   </si>
   <si>
@@ -709,6 +685,21 @@
   </si>
   <si>
     <t>CoRequisites</t>
+  </si>
+  <si>
+    <t>FALX99,LING220</t>
+  </si>
+  <si>
+    <t>REQ-LING 220. Writing.</t>
+  </si>
+  <si>
+    <t>FANX99,LING220</t>
+  </si>
+  <si>
+    <t>REQ-LING 220. Quantitative.</t>
+  </si>
+  <si>
+    <t>REQ-LING 322. Recommended: LING 324.</t>
   </si>
 </sst>
 </file>
@@ -1060,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EFA81E-17D6-450B-8176-A573AAA38823}">
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="A2" sqref="A2:I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1082,10 +1073,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -1099,45 +1090,45 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>167</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -1151,7 +1142,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1160,10 +1151,10 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -1177,7 +1168,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1186,10 +1177,10 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -1203,7 +1194,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1212,10 +1203,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -1229,7 +1220,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1238,7 +1229,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -1255,7 +1246,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -1264,10 +1255,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
@@ -1281,7 +1272,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1290,10 +1281,10 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
@@ -1307,7 +1298,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1316,10 +1307,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -1333,7 +1324,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -1342,10 +1333,10 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1359,7 +1350,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1368,7 +1359,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
@@ -1385,7 +1376,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1394,13 +1385,13 @@
         <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -1411,7 +1402,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1420,10 +1411,10 @@
         <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -1437,7 +1428,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1446,10 +1437,10 @@
         <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -1463,7 +1454,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -1472,7 +1463,7 @@
         <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -1489,7 +1480,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -1498,10 +1489,10 @@
         <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
@@ -1515,7 +1506,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -1524,10 +1515,10 @@
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
@@ -1541,7 +1532,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -1550,10 +1541,10 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
@@ -1563,14 +1554,11 @@
       </c>
       <c r="H19" t="s">
         <v>14</v>
-      </c>
-      <c r="I19" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -1579,10 +1567,10 @@
         <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
@@ -1596,7 +1584,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -1605,10 +1593,10 @@
         <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1618,14 +1606,11 @@
       </c>
       <c r="H21" t="s">
         <v>14</v>
-      </c>
-      <c r="I21" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1634,10 +1619,10 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
@@ -1647,23 +1632,20 @@
       </c>
       <c r="H22" t="s">
         <v>14</v>
-      </c>
-      <c r="I22" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -1675,12 +1657,12 @@
         <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -1689,7 +1671,7 @@
         <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
@@ -1706,7 +1688,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -1715,10 +1697,10 @@
         <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
@@ -1732,7 +1714,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -1741,7 +1723,7 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
@@ -1758,7 +1740,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -1767,13 +1749,13 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
@@ -1784,7 +1766,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -1793,10 +1775,10 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>216</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -1806,11 +1788,14 @@
       </c>
       <c r="H28" t="s">
         <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -1819,10 +1804,10 @@
         <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -1836,7 +1821,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -1845,10 +1830,10 @@
         <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
@@ -1858,11 +1843,14 @@
       </c>
       <c r="H30" t="s">
         <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -1871,10 +1859,10 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
@@ -1884,11 +1872,14 @@
       </c>
       <c r="H31" t="s">
         <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -1897,7 +1888,7 @@
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
@@ -1914,7 +1905,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -1923,7 +1914,7 @@
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
@@ -1940,7 +1931,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -1949,10 +1940,10 @@
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
@@ -1962,14 +1953,11 @@
       </c>
       <c r="H34" t="s">
         <v>14</v>
-      </c>
-      <c r="I34" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -1978,10 +1966,10 @@
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="E35" t="s">
-        <v>48</v>
+        <v>218</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
@@ -1993,12 +1981,12 @@
         <v>14</v>
       </c>
       <c r="I35" t="s">
-        <v>93</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
         <v>8</v>
@@ -2007,10 +1995,10 @@
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
@@ -2020,9 +2008,6 @@
       </c>
       <c r="H36" t="s">
         <v>14</v>
-      </c>
-      <c r="I36" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -2039,7 +2024,7 @@
         <v>98</v>
       </c>
       <c r="E37" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
@@ -2053,7 +2038,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c r="B38" t="s">
         <v>8</v>
@@ -2062,10 +2047,10 @@
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="E38" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
@@ -2079,7 +2064,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>172</v>
       </c>
       <c r="B39" t="s">
         <v>8</v>
@@ -2088,10 +2073,10 @@
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
@@ -2105,7 +2090,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
         <v>8</v>
@@ -2114,10 +2099,10 @@
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
@@ -2129,12 +2114,12 @@
         <v>14</v>
       </c>
       <c r="I40" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="B41" t="s">
         <v>8</v>
@@ -2143,10 +2128,10 @@
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="E41" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
         <v>12</v>
@@ -2160,7 +2145,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="B42" t="s">
         <v>8</v>
@@ -2169,10 +2154,10 @@
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="E42" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
@@ -2184,12 +2169,12 @@
         <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>111</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="B43" t="s">
         <v>8</v>
@@ -2198,10 +2183,10 @@
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
@@ -2211,11 +2196,14 @@
       </c>
       <c r="H43" t="s">
         <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>182</v>
       </c>
       <c r="B44" t="s">
         <v>8</v>
@@ -2224,10 +2212,10 @@
         <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>183</v>
       </c>
       <c r="E44" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
@@ -2237,11 +2225,14 @@
       </c>
       <c r="H44" t="s">
         <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="B45" t="s">
         <v>8</v>
@@ -2250,10 +2241,10 @@
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>118</v>
+        <v>187</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>170</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
@@ -2263,11 +2254,14 @@
       </c>
       <c r="H45" t="s">
         <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
         <v>8</v>
@@ -2276,10 +2270,10 @@
         <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
@@ -2289,11 +2283,14 @@
       </c>
       <c r="H46" t="s">
         <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B47" t="s">
         <v>8</v>
@@ -2302,7 +2299,7 @@
         <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="E47" t="s">
         <v>12</v>
@@ -2315,11 +2312,14 @@
       </c>
       <c r="H47" t="s">
         <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>123</v>
+        <v>189</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
@@ -2328,7 +2328,7 @@
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="E48" t="s">
         <v>12</v>
@@ -2341,11 +2341,14 @@
       </c>
       <c r="H48" t="s">
         <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>125</v>
+        <v>192</v>
       </c>
       <c r="B49" t="s">
         <v>8</v>
@@ -2354,7 +2357,7 @@
         <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="E49" t="s">
         <v>12</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
@@ -2380,7 +2383,7 @@
         <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
@@ -2397,7 +2400,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
         <v>8</v>
@@ -2406,10 +2409,10 @@
         <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
@@ -2419,11 +2422,14 @@
       </c>
       <c r="H51" t="s">
         <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
@@ -2432,7 +2438,7 @@
         <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="E52" t="s">
         <v>12</v>
@@ -2449,7 +2455,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
@@ -2458,7 +2464,7 @@
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="E53" t="s">
         <v>12</v>
@@ -2475,7 +2481,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B54" t="s">
         <v>8</v>
@@ -2484,10 +2490,10 @@
         <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="F54" t="s">
         <v>12</v>
@@ -2501,7 +2507,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="B55" t="s">
         <v>8</v>
@@ -2510,7 +2516,7 @@
         <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="E55" t="s">
         <v>12</v>
@@ -2523,11 +2529,14 @@
       </c>
       <c r="H55" t="s">
         <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>139</v>
+        <v>199</v>
       </c>
       <c r="B56" t="s">
         <v>8</v>
@@ -2536,10 +2545,10 @@
         <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F56" t="s">
         <v>12</v>
@@ -2549,20 +2558,23 @@
       </c>
       <c r="H56" t="s">
         <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="B57" t="s">
         <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c r="E57" t="s">
         <v>12</v>
@@ -2571,24 +2583,24 @@
         <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="H57" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>141</v>
+        <v>204</v>
       </c>
       <c r="B58" t="s">
         <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>143</v>
+        <v>205</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
@@ -2597,18 +2609,15 @@
         <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
       <c r="H58" t="s">
-        <v>145</v>
-      </c>
-      <c r="I58" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="B59" t="s">
         <v>8</v>
@@ -2617,7 +2626,7 @@
         <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>148</v>
+        <v>207</v>
       </c>
       <c r="E59" t="s">
         <v>12</v>
@@ -2634,7 +2643,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="B60" t="s">
         <v>8</v>
@@ -2643,7 +2652,7 @@
         <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="E60" t="s">
         <v>12</v>
@@ -2660,7 +2669,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="B61" t="s">
         <v>8</v>
@@ -2669,7 +2678,7 @@
         <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
       <c r="E61" t="s">
         <v>12</v>
@@ -2686,7 +2695,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="B62" t="s">
         <v>8</v>
@@ -2695,7 +2704,7 @@
         <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
@@ -2712,7 +2721,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
@@ -2721,7 +2730,7 @@
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="E63" t="s">
         <v>12</v>
@@ -2738,366 +2747,357 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>212</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>213</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>118</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>144</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
+        <v>146</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>148</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>150</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
+        <v>152</v>
+      </c>
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
+        <v>120</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>154</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
+        <v>122</v>
+      </c>
+      <c r="E73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>155</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>156</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>157</v>
       </c>
-      <c r="B64" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" t="s">
         <v>158</v>
       </c>
-      <c r="E64" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="E75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" t="s">
+        <v>124</v>
+      </c>
+      <c r="E76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>159</v>
       </c>
-      <c r="B65" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
         <v>160</v>
       </c>
-      <c r="E65" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>161</v>
-      </c>
-      <c r="B66" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" t="s">
-        <v>162</v>
-      </c>
-      <c r="E66" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>163</v>
-      </c>
-      <c r="B67" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" t="s">
-        <v>164</v>
-      </c>
-      <c r="E67" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>165</v>
-      </c>
-      <c r="B68" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" t="s">
-        <v>166</v>
-      </c>
-      <c r="E68" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" t="s">
-        <v>13</v>
-      </c>
-      <c r="H68" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>167</v>
-      </c>
-      <c r="B69" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" t="s">
-        <v>168</v>
-      </c>
-      <c r="E69" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>169</v>
-      </c>
-      <c r="B70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" t="s">
-        <v>170</v>
-      </c>
-      <c r="E70" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>116</v>
-      </c>
-      <c r="B71" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" t="s">
-        <v>171</v>
-      </c>
-      <c r="D71" t="s">
-        <v>172</v>
-      </c>
-      <c r="E71" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" t="s">
-        <v>171</v>
-      </c>
-      <c r="H71" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>174</v>
-      </c>
-      <c r="B72" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" t="s">
-        <v>175</v>
-      </c>
-      <c r="E72" t="s">
-        <v>51</v>
-      </c>
-      <c r="F72" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" t="s">
-        <v>14</v>
-      </c>
-      <c r="I72" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>177</v>
-      </c>
-      <c r="B73" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" t="s">
-        <v>178</v>
-      </c>
-      <c r="E73" t="s">
-        <v>51</v>
-      </c>
-      <c r="F73" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" t="s">
-        <v>13</v>
-      </c>
-      <c r="H73" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>179</v>
-      </c>
-      <c r="B74" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" t="s">
-        <v>180</v>
-      </c>
-      <c r="E74" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>181</v>
-      </c>
-      <c r="B75" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" t="s">
-        <v>182</v>
-      </c>
-      <c r="E75" t="s">
-        <v>183</v>
-      </c>
-      <c r="F75" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" t="s">
-        <v>14</v>
-      </c>
-      <c r="I75" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>185</v>
-      </c>
-      <c r="B76" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" t="s">
-        <v>186</v>
-      </c>
-      <c r="E76" t="s">
-        <v>56</v>
-      </c>
-      <c r="F76" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" t="s">
-        <v>13</v>
-      </c>
-      <c r="H76" t="s">
-        <v>14</v>
-      </c>
-      <c r="I76" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>188</v>
-      </c>
-      <c r="B77" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" t="s">
-        <v>189</v>
-      </c>
       <c r="E77" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
         <v>12</v>
@@ -3108,13 +3108,10 @@
       <c r="H77" t="s">
         <v>14</v>
       </c>
-      <c r="I77" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>192</v>
+        <v>125</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
@@ -3123,10 +3120,10 @@
         <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="E78" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
         <v>12</v>
@@ -3137,13 +3134,10 @@
       <c r="H78" t="s">
         <v>14</v>
       </c>
-      <c r="I78" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
@@ -3152,7 +3146,7 @@
         <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="E79" t="s">
         <v>12</v>
@@ -3166,13 +3160,10 @@
       <c r="H79" t="s">
         <v>14</v>
       </c>
-      <c r="I79" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>198</v>
+        <v>129</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
@@ -3181,10 +3172,10 @@
         <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c r="E80" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
         <v>12</v>
@@ -3198,7 +3189,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
@@ -3207,7 +3198,7 @@
         <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="E81" t="s">
         <v>12</v>
@@ -3224,7 +3215,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
@@ -3233,7 +3224,7 @@
         <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="E82" t="s">
         <v>12</v>
@@ -3246,14 +3237,11 @@
       </c>
       <c r="H82" t="s">
         <v>14</v>
-      </c>
-      <c r="I82" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
@@ -3262,10 +3250,10 @@
         <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="E83" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
         <v>12</v>
@@ -3275,14 +3263,11 @@
       </c>
       <c r="H83" t="s">
         <v>14</v>
-      </c>
-      <c r="I83" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>208</v>
+        <v>133</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
@@ -3291,7 +3276,7 @@
         <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="E84" t="s">
         <v>12</v>
@@ -3308,7 +3293,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
@@ -3317,7 +3302,7 @@
         <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>211</v>
+        <v>166</v>
       </c>
       <c r="E85" t="s">
         <v>12</v>
@@ -3334,7 +3319,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
@@ -3343,7 +3328,7 @@
         <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>213</v>
+        <v>136</v>
       </c>
       <c r="E86" t="s">
         <v>12</v>
@@ -3360,16 +3345,16 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>214</v>
+        <v>137</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="D87" t="s">
-        <v>215</v>
+        <v>139</v>
       </c>
       <c r="E87" t="s">
         <v>12</v>
@@ -3378,24 +3363,24 @@
         <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="D88" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="E88" t="s">
         <v>12</v>
@@ -3404,24 +3389,27 @@
         <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="H88" t="s">
-        <v>14</v>
+        <v>141</v>
+      </c>
+      <c r="I88" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>218</v>
+        <v>64</v>
       </c>
       <c r="B89" t="s">
         <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="D89" t="s">
-        <v>219</v>
+        <v>66</v>
       </c>
       <c r="E89" t="s">
         <v>12</v>
@@ -3433,33 +3421,7 @@
         <v>13</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>220</v>
-      </c>
-      <c r="B90" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" t="s">
-        <v>221</v>
-      </c>
-      <c r="E90" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" t="s">
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
